--- a/biology/Zoologie/Crossodactylus_caramaschii/Crossodactylus_caramaschii.xlsx
+++ b/biology/Zoologie/Crossodactylus_caramaschii/Crossodactylus_caramaschii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylus caramaschii est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylus caramaschii est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le sud de l'État de São Paulo, dans le Paraná et dans le Santa Catarina[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre dans le sud de l'État de São Paulo, dans le Paraná et dans le Santa Catarina.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crossodactylus caramaschii mesure de 21 à 26 mm pour les mâles. Son dos est brun foncé et présente une ligne longitudinale claire. Son ventre est blanc jaunâtre avec une réticulation brune[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crossodactylus caramaschii mesure de 21 à 26 mm pour les mâles. Son dos est brun foncé et présente une ligne longitudinale claire. Son ventre est blanc jaunâtre avec une réticulation brune.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, caramaschii, lui a été donné en référence à Ulisses Caramaschi pour sa contribution à la connaissance de l'herpétofaune du Brésil[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, caramaschii, lui a été donné en référence à Ulisses Caramaschi pour sa contribution à la connaissance de l'herpétofaune du Brésil.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bastos &amp; Pombal, 1995 : A new species of Crossodactylus (Anura: Leptodactylidae) from Atlantic rain forest of southeastern Brazil. Copeia, vol. 1995, no 2, p. 436-439 (texte intégral).</t>
         </is>
